--- a/documentation/Base.TblIntakes_Data_Dictionary.xlsx
+++ b/documentation/Base.TblIntakes_Data_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="118">
   <si>
     <t>id_intake_fact</t>
   </si>
@@ -312,6 +312,79 @@
   </si>
   <si>
     <t>Table_Origin</t>
+  </si>
+  <si>
+    <t>rptIntakes</t>
+  </si>
+  <si>
+    <t>intake_fact</t>
+  </si>
+  <si>
+    <t>safety_assessment_fact</t>
+  </si>
+  <si>
+    <t>Columns joined</t>
+  </si>
+  <si>
+    <t>intake_fact.id_access_report=rptIntakes.id_access_report</t>
+  </si>
+  <si>
+    <t>Unique identifier in tbl_intakes.</t>
+  </si>
+  <si>
+    <t>allegation_fact</t>
+  </si>
+  <si>
+    <t>allegation_fact.id_intake_fact=intake_fact.id_intake_fact</t>
+  </si>
+  <si>
+    <t>Unique identifier in investigation_assessment_fact</t>
+  </si>
+  <si>
+    <t>This is the famlink id_case assigned for this referral</t>
+  </si>
+  <si>
+    <t>Unique identifier in id_safety_assessment_fact</t>
+  </si>
+  <si>
+    <t>safety_assessment_fact.id_intake_fact=intake_fact.id_intake_fact</t>
+  </si>
+  <si>
+    <t>This is the referral date for this intake.  This is a date TIME field.</t>
+  </si>
+  <si>
+    <t>dt_access_rcvd converted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the referral DATE field (no time). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDITIONAL UPDATES TO THIS FIELD WHEN NULL After initial insert:  
+When closest worker assignment end date is NOT NULL and is within 90 days of inv_ass_start then we use the closest assignment end date WHEN SCREENED IN  ,CPS, CPS - Risk Only, Non- CPS (FRS,CFWS etc) and The inv_ass_start is At least 183 days FROM the cutoff_date(last data warehouse cutoff date).
+if case closed prior to 90 days after start date then use date case closed otherwise add 90 days to investigation assessment start date if The inv_ass_start is At least 183 days FROM the cutoff_date. </t>
+  </si>
+  <si>
+    <t>Case Statement determines table_origin.  If cd_final_decision  is NOT EQUAL 1 (NOT SCREENED IN) then this is the date of the supervisor's decision (id_calendar_dim_spvr_dscn),  When Screened in (cd_final_decision=1 and the the closest investigation assessment completion date is &gt;= referral date(id_calendar_dim_access_rcvd) then we use investigation completion date else we leave NULL.  See table orign for ia_cmpltd_dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The investigation assessment completion date comes from table investigation_assessment_fact USING this logic:   
+dbo.IntDate_to_CalDate(
+CASE WHEN ID_CALENDAR_DIM_LEVEL2_APPROVED = 0 
+and ID_CALENDAR_DIM_LEVEL1_APPROVED &gt;0  AND ID_CALENDAR_DIM_LEVEL1_APPROVED &lt; 20090201 THEN ID_CALENDAR_DIM_LEVEL1_APPROVED
+WHEN ID_CALENDAR_DIM_LEVEL2_APPROVED &lt;&gt; 0 THEN ID_CALENDAR_DIM_LEVEL2_APPROVED end
+) AS  ia_cmpltd_dt</t>
+  </si>
+  <si>
+    <t>Intake_Fact.id_calendar_dim_spvr_dscn</t>
+  </si>
+  <si>
+    <t>intake_type_dim.cd_access_type</t>
+  </si>
+  <si>
+    <t>intake_type_dim.tx_access_type</t>
+  </si>
+  <si>
+    <t>intake_type_dim.id_intake_type_dim=intake_fact.id_intake_type_dim</t>
   </si>
 </sst>
 </file>
@@ -347,13 +420,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -364,6 +456,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F86" totalsRowShown="0">
+  <autoFilter ref="A1:F86"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Column Name"/>
+    <tableColumn id="2" name="Ordinal Position" dataDxfId="0"/>
+    <tableColumn id="3" name="Data Type"/>
+    <tableColumn id="4" name="Table_Origin"/>
+    <tableColumn id="5" name="Columns joined"/>
+    <tableColumn id="6" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,24 +736,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
+    <col min="6" max="6" width="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C1" t="s">
@@ -656,168 +766,243 @@
         <v>95</v>
       </c>
       <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -828,7 +1013,7 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -839,7 +1024,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -850,7 +1035,7 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -861,7 +1046,7 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -872,7 +1057,7 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -883,7 +1068,7 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -894,7 +1079,7 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -905,7 +1090,7 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -916,7 +1101,7 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -927,7 +1112,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -938,7 +1123,7 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -949,7 +1134,7 @@
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -960,7 +1145,7 @@
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -971,7 +1156,7 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -982,7 +1167,7 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -993,7 +1178,7 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -1004,7 +1189,7 @@
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -1015,7 +1200,7 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -1026,7 +1211,7 @@
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -1037,7 +1222,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -1048,7 +1233,7 @@
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -1059,7 +1244,7 @@
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -1070,7 +1255,7 @@
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -1081,7 +1266,7 @@
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -1092,7 +1277,7 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -1103,7 +1288,7 @@
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -1114,7 +1299,7 @@
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -1125,7 +1310,7 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -1136,7 +1321,7 @@
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -1147,7 +1332,7 @@
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -1158,7 +1343,7 @@
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -1169,7 +1354,7 @@
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>47</v>
       </c>
       <c r="C48" t="s">
@@ -1180,7 +1365,7 @@
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -1191,7 +1376,7 @@
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -1202,7 +1387,7 @@
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
       <c r="C51" t="s">
@@ -1213,7 +1398,7 @@
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>51</v>
       </c>
       <c r="C52" t="s">
@@ -1224,7 +1409,7 @@
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
       <c r="C53" t="s">
@@ -1235,7 +1420,7 @@
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
       <c r="C54" t="s">
@@ -1246,7 +1431,7 @@
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
       <c r="C55" t="s">
@@ -1257,7 +1442,7 @@
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -1268,7 +1453,7 @@
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>56</v>
       </c>
       <c r="C57" t="s">
@@ -1279,7 +1464,7 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>57</v>
       </c>
       <c r="C58" t="s">
@@ -1290,7 +1475,7 @@
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
       <c r="C59" t="s">
@@ -1301,7 +1486,7 @@
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
       <c r="C60" t="s">
@@ -1312,7 +1497,7 @@
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
       <c r="C61" t="s">
@@ -1323,7 +1508,7 @@
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
       <c r="C62" t="s">
@@ -1334,7 +1519,7 @@
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
       <c r="C63" t="s">
@@ -1345,7 +1530,7 @@
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
       <c r="C64" t="s">
@@ -1356,7 +1541,7 @@
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
       <c r="C65" t="s">
@@ -1367,7 +1552,7 @@
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
       <c r="C66" t="s">
@@ -1378,7 +1563,7 @@
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>66</v>
       </c>
       <c r="C67" t="s">
@@ -1389,7 +1574,7 @@
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>67</v>
       </c>
       <c r="C68" t="s">
@@ -1400,7 +1585,7 @@
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>68</v>
       </c>
       <c r="C69" t="s">
@@ -1411,7 +1596,7 @@
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
       <c r="C70" t="s">
@@ -1422,7 +1607,7 @@
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
       <c r="C71" t="s">
@@ -1433,7 +1618,7 @@
       <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
       <c r="C72" t="s">
@@ -1444,7 +1629,7 @@
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>72</v>
       </c>
       <c r="C73" t="s">
@@ -1455,7 +1640,7 @@
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
       <c r="C74" t="s">
@@ -1466,7 +1651,7 @@
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
       <c r="C75" t="s">
@@ -1477,7 +1662,7 @@
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
       <c r="C76" t="s">
@@ -1488,7 +1673,7 @@
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
       <c r="C77" t="s">
@@ -1499,7 +1684,7 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
       <c r="C78" t="s">
@@ -1510,7 +1695,7 @@
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>78</v>
       </c>
       <c r="C79" t="s">
@@ -1521,73 +1706,76 @@
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>85</v>
       </c>
       <c r="C86" t="s">
@@ -1596,5 +1784,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/documentation/Base.TblIntakes_Data_Dictionary.xlsx
+++ b/documentation/Base.TblIntakes_Data_Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
